--- a/Vis_COE_Task_T2/src/test/java/data/TestData.xlsx
+++ b/Vis_COE_Task_T2/src/test/java/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11040" windowHeight="1395" tabRatio="599"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9810" windowHeight="2505" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,27 +372,27 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
